--- a/Figures_tables/model_results_final.xlsx
+++ b/Figures_tables/model_results_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/benjamin_millard-martin_mail_mcgill_ca/Documents/Documents/eDNA Thesis/repos/eDNA_seine_Calvert/Manuscript/figures_tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mcgill-my.sharepoint.com/personal/benjamin_millard-martin_mail_mcgill_ca/Documents/Documents/eDNA Thesis/repos/marine_eDNA_beach_seine_central_coast/Figures_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{1172CE36-63CC-4F41-A9EC-F4E09796352A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80E9C202-40E7-4CAC-8007-A2C402AFD41C}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{1172CE36-63CC-4F41-A9EC-F4E09796352A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE0B6E8E-AE7E-4B8A-A73E-6F7BF6E75EC2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="39855" yWindow="15" windowWidth="17250" windowHeight="8865" tabRatio="762" activeTab="2" xr2:uid="{C09B008C-0D21-41F9-9BF2-8AFE2A949BA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" activeTab="2" xr2:uid="{C09B008C-0D21-41F9-9BF2-8AFE2A949BA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="119">
   <si>
     <t>distance to rockyshore</t>
   </si>
@@ -316,9 +316,6 @@
     <t>% fine sediment</t>
   </si>
   <si>
-    <t>R^2 = 0.310, RMSE = 5.534, Sigma = 6.111</t>
-  </si>
-  <si>
     <t>Hypothesis</t>
   </si>
   <si>
@@ -395,6 +392,12 @@
   </si>
   <si>
     <t>distance to water &gt;25-m deep</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>R^2 = 0.277, RMSE = 5.574, Sigma = 6.131</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -569,18 +572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -590,17 +581,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -610,19 +595,7 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -634,9 +607,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -649,9 +619,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,9 +628,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -704,71 +668,128 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,104 +1111,104 @@
       <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20">
+    <row r="1" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="C4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="21" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
-        <v>4</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="21" t="s">
+    <row r="6" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="21" t="s">
+    <row r="7" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
-        <v>6</v>
-      </c>
-      <c r="B7" s="23" t="s">
+      <c r="C7" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1199,143 +1220,143 @@
   <dimension ref="B1:P10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="B7" sqref="B1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="7" width="7.88671875" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="7" width="7.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:16" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="63" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="25"/>
-      <c r="C2" s="55" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="63"/>
+      <c r="C2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="56" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="57">
-        <v>4.6105099999999997</v>
-      </c>
-      <c r="D3" s="57">
-        <v>5.6540210000000002</v>
-      </c>
-      <c r="E3" s="58">
-        <v>9.7934590000000004</v>
-      </c>
-      <c r="F3" s="57">
-        <v>0.81544000000000005</v>
-      </c>
-      <c r="G3" s="57">
-        <v>0.4194</v>
+      <c r="C3" s="44">
+        <v>5.5010000000000003</v>
+      </c>
+      <c r="D3" s="44">
+        <v>5.625</v>
+      </c>
+      <c r="E3" s="45">
+        <v>10.066000000000001</v>
+      </c>
+      <c r="F3" s="44">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G3" s="44">
+        <v>0.33400000000000002</v>
       </c>
       <c r="M3" s="13"/>
     </row>
-    <row r="4" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="59">
-        <v>-2.2010200000000002</v>
-      </c>
-      <c r="D4" s="59">
-        <v>0.86427799999999999</v>
-      </c>
-      <c r="E4" s="59">
-        <v>-2.8175059999999998</v>
-      </c>
-      <c r="F4" s="59">
-        <v>-2.5466530000000001</v>
-      </c>
-      <c r="G4" s="59">
-        <v>1.46E-2</v>
+      <c r="C4" s="46">
+        <v>-2.125</v>
+      </c>
+      <c r="D4" s="46">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E4" s="46">
+        <v>-2.72</v>
+      </c>
+      <c r="F4" s="46">
+        <v>-2.48</v>
+      </c>
+      <c r="G4" s="46">
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="M4" s="13"/>
       <c r="P4" s="13"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="59">
-        <v>2.7561900000000001</v>
-      </c>
-      <c r="D5" s="59">
-        <v>1.44783</v>
-      </c>
-      <c r="E5" s="59">
-        <v>2.0318800000000001</v>
-      </c>
-      <c r="F5" s="59">
-        <v>1.9036709999999999</v>
-      </c>
-      <c r="G5" s="59">
-        <v>6.3799999999999996E-2</v>
+      <c r="C5" s="46">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="D5" s="46">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="E5" s="46">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="F5" s="46">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="G5" s="46">
+        <v>7.8E-2</v>
       </c>
       <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="60" t="s">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="61">
-        <v>-44.512799999999999</v>
-      </c>
-      <c r="D6" s="61">
-        <v>13.30092</v>
-      </c>
-      <c r="E6" s="61">
-        <v>-4.025531</v>
-      </c>
-      <c r="F6" s="61">
-        <v>-3.3465959999999999</v>
-      </c>
-      <c r="G6" s="61">
-        <v>1.6999999999999999E-3</v>
+      <c r="C6" s="48">
+        <v>-47.371000000000002</v>
+      </c>
+      <c r="D6" s="48">
+        <v>12.769</v>
+      </c>
+      <c r="E6" s="48">
+        <v>-4.2839999999999998</v>
+      </c>
+      <c r="F6" s="48">
+        <v>-3.71</v>
+      </c>
+      <c r="G6" s="48">
+        <v>1E-3</v>
       </c>
       <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="62" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -1344,7 +1365,7 @@
       <c r="G7" s="62"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="M10" s="13"/>
     </row>
   </sheetData>
@@ -1366,760 +1387,745 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M19" sqref="D13:M22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="7.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.21875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="7.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.3">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
+    <row r="1" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="27" t="s">
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+    </row>
+    <row r="2" spans="1:17" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="25">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="72">
+        <v>25.346</v>
+      </c>
+      <c r="I3" s="72">
+        <v>91.084999999999994</v>
+      </c>
+      <c r="J3" s="72">
+        <v>68.117000000000004</v>
+      </c>
+      <c r="K3" s="66">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="L3" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="M3" s="66">
+        <v>0.47</v>
+      </c>
+      <c r="N3" s="52">
+        <v>20</v>
+      </c>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="25">
+        <v>15.98</v>
+      </c>
+      <c r="G4" s="26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="52">
+        <v>14.9</v>
+      </c>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.54</v>
+      </c>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="52">
+        <v>1.4</v>
+      </c>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="29">
+        <v>3.855</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0.26</v>
+      </c>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="53">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="G7" s="34">
+        <v>0</v>
+      </c>
+      <c r="H7" s="74">
+        <v>17.422000000000001</v>
+      </c>
+      <c r="I7" s="74">
+        <v>125</v>
+      </c>
+      <c r="J7" s="74">
+        <v>103</v>
+      </c>
+      <c r="K7" s="65">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="L7" s="65">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M7" s="65">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="N7" s="51">
+        <v>1.06</v>
+      </c>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="25">
+        <v>18.018000000000001</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.106</v>
+      </c>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="50">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="25">
+        <v>64.896000000000001</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="50">
+        <v>13.1</v>
+      </c>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="31">
+        <v>2.3460000000000001</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0.77</v>
+      </c>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+    </row>
+    <row r="13" spans="1:17" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="1:17" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-    </row>
-    <row r="2" spans="1:17" s="14" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="28" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F14" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H14" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I14" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J14" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K14" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L14" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M14" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N14" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="29" t="s">
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E15" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="35">
-        <v>32.020000000000003</v>
-      </c>
-      <c r="G3" s="36">
+      <c r="F15" s="25">
+        <v>28.579000000000001</v>
+      </c>
+      <c r="G15" s="26">
         <v>0</v>
       </c>
-      <c r="H3" s="63">
-        <v>25.346</v>
-      </c>
-      <c r="I3" s="63">
-        <v>91.084999999999994</v>
-      </c>
-      <c r="J3" s="63">
-        <v>68.117000000000004</v>
-      </c>
-      <c r="K3" s="37">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="L3" s="37">
-        <v>0.13</v>
-      </c>
-      <c r="M3" s="37">
-        <v>0.47</v>
-      </c>
-      <c r="N3" s="66">
-        <v>20</v>
-      </c>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="34" t="s">
+      <c r="H15" s="66">
+        <v>23.545000000000002</v>
+      </c>
+      <c r="I15" s="66">
+        <v>110</v>
+      </c>
+      <c r="J15" s="66">
+        <v>84.2</v>
+      </c>
+      <c r="K15" s="66">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="L15" s="66">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="M15" s="66">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="35">
-        <v>15.98</v>
-      </c>
-      <c r="G4" s="36">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="66">
-        <v>14.9</v>
-      </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="34" t="s">
+      <c r="F16" s="25">
+        <v>21.981999999999999</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="35">
-        <v>1</v>
-      </c>
-      <c r="G5" s="36">
-        <v>0.54</v>
-      </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="66">
-        <v>1.4</v>
-      </c>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="40">
-        <v>3.855</v>
-      </c>
-      <c r="G6" s="41">
-        <v>0.26</v>
-      </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="67">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-    </row>
-    <row r="7" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="31" t="s">
+      <c r="F17" s="25">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0.67</v>
+      </c>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="29">
+        <v>2.9369999999999998</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+    </row>
+    <row r="19" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E19" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="45">
-        <v>0.83799999999999997</v>
-      </c>
-      <c r="G7" s="46">
+      <c r="F19" s="33">
+        <v>5.73</v>
+      </c>
+      <c r="G19" s="34">
         <v>0</v>
       </c>
-      <c r="H7" s="65">
-        <v>17.422000000000001</v>
-      </c>
-      <c r="I7" s="65">
-        <v>125</v>
-      </c>
-      <c r="J7" s="65">
-        <v>103</v>
-      </c>
-      <c r="K7" s="47">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="L7" s="47">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="M7" s="47">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="N7" s="68">
-        <v>1.06</v>
-      </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="34" t="s">
+      <c r="H19" s="65">
+        <v>16.78</v>
+      </c>
+      <c r="I19" s="65">
+        <v>138</v>
+      </c>
+      <c r="J19" s="65">
+        <v>115</v>
+      </c>
+      <c r="K19" s="65">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L19" s="65">
+        <v>0.18</v>
+      </c>
+      <c r="M19" s="65">
+        <v>0.38</v>
+      </c>
+      <c r="N19" s="33"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="35">
-        <v>18.018000000000001</v>
-      </c>
-      <c r="G8" s="36">
-        <v>0.106</v>
-      </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="69">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="34" t="s">
+      <c r="F20" s="25">
+        <v>14.41</v>
+      </c>
+      <c r="G20" s="26">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="35">
-        <v>64.896000000000001</v>
-      </c>
-      <c r="G9" s="36">
-        <v>0.01</v>
-      </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="69">
-        <v>13.1</v>
-      </c>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="43">
-        <v>2.3460000000000001</v>
-      </c>
-      <c r="G10" s="48">
-        <v>0.77</v>
-      </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="67">
-        <v>0.1</v>
-      </c>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-    </row>
-    <row r="13" spans="1:17" ht="27" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-    </row>
-    <row r="14" spans="1:17" s="14" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-    </row>
-    <row r="15" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="35">
-        <v>28.579000000000001</v>
-      </c>
-      <c r="G15" s="36">
-        <v>0</v>
-      </c>
-      <c r="H15" s="37">
-        <v>23.545000000000002</v>
-      </c>
-      <c r="I15" s="37">
-        <v>110</v>
-      </c>
-      <c r="J15" s="37">
-        <v>84.2</v>
-      </c>
-      <c r="K15" s="37">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="L15" s="37">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="M15" s="37">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="35">
-        <v>21.981999999999999</v>
-      </c>
-      <c r="G16" s="36">
-        <v>1.6E-2</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="35">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="G17" s="36">
-        <v>0.67</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="40">
-        <v>2.9369999999999998</v>
-      </c>
-      <c r="G18" s="41">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-    </row>
-    <row r="19" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="45">
-        <v>5.73</v>
-      </c>
-      <c r="G19" s="46">
-        <v>0</v>
-      </c>
-      <c r="H19" s="47">
-        <v>16.78</v>
-      </c>
-      <c r="I19" s="47">
-        <v>138</v>
-      </c>
-      <c r="J19" s="47">
-        <v>115</v>
-      </c>
-      <c r="K19" s="47">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="L19" s="47">
-        <v>0.18</v>
-      </c>
-      <c r="M19" s="47">
-        <v>0.38</v>
-      </c>
-      <c r="N19" s="45"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="35">
-        <v>14.41</v>
-      </c>
-      <c r="G20" s="36">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="35">
+      <c r="F21" s="25">
         <v>51.96</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="26">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="43">
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="31">
         <v>2.38</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="35">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="K3:K6"/>
     <mergeCell ref="L3:L6"/>
@@ -2135,6 +2141,21 @@
     <mergeCell ref="L7:L10"/>
     <mergeCell ref="M7:M10"/>
     <mergeCell ref="I7:I10"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="K19:K22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2149,141 +2170,141 @@
       <selection activeCell="D10" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="55" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74" t="s">
+    <row r="3" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76"/>
+      <c r="B3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="74" t="s">
+    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76"/>
+      <c r="B4" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74" t="s">
+    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74" t="s">
+    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74" t="s">
+    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76"/>
+      <c r="B7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
+    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
+      <c r="B9" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="76" t="s">
+    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="59" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2299,202 +2320,251 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672C28F-D373-4DAF-AB8A-71DAC227E290}">
-  <dimension ref="A2:H8"/>
+  <dimension ref="A2:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="A2:H8"/>
+      <selection activeCell="H8" sqref="B2:H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="78" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="61">
+        <v>1</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="82">
+        <v>10</v>
+      </c>
+      <c r="E3" s="83">
+        <v>-151.272248797115</v>
+      </c>
+      <c r="F3" s="83">
+        <v>328.83021187994501</v>
+      </c>
+      <c r="G3" s="82">
+        <v>38.129681986131899</v>
+      </c>
+      <c r="H3" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="85">
+        <v>11</v>
+      </c>
+      <c r="E4" s="86">
+        <v>-141.46859863236699</v>
+      </c>
+      <c r="F4" s="86">
+        <v>312.70190314708702</v>
+      </c>
+      <c r="G4" s="85">
+        <v>22.001373253273201</v>
+      </c>
+      <c r="H4" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="85">
+        <v>9</v>
+      </c>
+      <c r="E5" s="86">
+        <v>-148.00009420756899</v>
+      </c>
+      <c r="F5" s="86">
+        <v>319.00018841513901</v>
+      </c>
+      <c r="G5" s="85">
+        <v>28.2996585213251</v>
+      </c>
+      <c r="H5" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="79">
-        <v>1</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="79" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="79">
+      <c r="C6" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="85">
         <v>10</v>
       </c>
-      <c r="E3" s="80">
-        <v>-151.70853240110799</v>
-      </c>
-      <c r="F3" s="80">
-        <v>329.70277908793003</v>
-      </c>
-      <c r="G3" s="80">
-        <v>37.631343523013904</v>
-      </c>
-      <c r="H3" s="80">
-        <v>6.0214774297527203E-9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
-        <v>2</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="26">
+      <c r="E6" s="86">
+        <v>-136.824928111215</v>
+      </c>
+      <c r="F6" s="86">
+        <v>299.93557050814502</v>
+      </c>
+      <c r="G6" s="85">
+        <v>9.2350406143312895</v>
+      </c>
+      <c r="H6" s="88">
+        <v>8.7045238810199797E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="85">
+        <v>9</v>
+      </c>
+      <c r="E7" s="86">
+        <v>-135.93104873116599</v>
+      </c>
+      <c r="F7" s="86">
+        <v>294.862097462333</v>
+      </c>
+      <c r="G7" s="85">
+        <v>4.1615675685194402</v>
+      </c>
+      <c r="H7" s="88">
+        <v>0.110010894274178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>6</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="89">
         <v>11</v>
       </c>
-      <c r="E4" s="81">
-        <v>-142.950483405602</v>
-      </c>
-      <c r="F4" s="81">
-        <v>315.66567269355698</v>
-      </c>
-      <c r="G4" s="81">
-        <v>23.594237128640899</v>
-      </c>
-      <c r="H4" s="81">
-        <v>6.7270086683888803E-6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
-        <v>3</v>
-      </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="26">
-        <v>9</v>
-      </c>
-      <c r="E5" s="81">
-        <v>-148.72776548827099</v>
-      </c>
-      <c r="F5" s="81">
-        <v>320.45553097654198</v>
-      </c>
-      <c r="G5" s="81">
-        <v>28.384095411625701</v>
-      </c>
-      <c r="H5" s="81">
-        <v>6.1336286186978201E-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
-        <v>4</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="26">
-        <v>10</v>
-      </c>
-      <c r="E6" s="81">
-        <v>-137.540064945952</v>
-      </c>
-      <c r="F6" s="81">
-        <v>301.36584417761799</v>
-      </c>
-      <c r="G6" s="81">
-        <v>9.2944086127019396</v>
-      </c>
-      <c r="H6" s="81">
-        <v>8.5701869481636505E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
-        <v>5</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="26">
-        <v>9</v>
-      </c>
-      <c r="E7" s="81">
-        <v>-136.75021217170701</v>
-      </c>
-      <c r="F7" s="81">
-        <v>296.50042434341401</v>
-      </c>
-      <c r="G7" s="81">
-        <v>4.4289887784978497</v>
-      </c>
-      <c r="H7" s="81">
-        <v>9.7611905028228294E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="54">
-        <v>6</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="54">
-        <v>11</v>
-      </c>
-      <c r="E8" s="84">
-        <v>-131.15336484128099</v>
-      </c>
-      <c r="F8" s="85">
-        <v>292.07143556491599</v>
-      </c>
-      <c r="G8" s="84">
+      <c r="E8" s="90">
+        <v>-130.46791200573</v>
+      </c>
+      <c r="F8" s="90">
+        <v>290.70052989381401</v>
+      </c>
+      <c r="G8" s="89">
         <v>0</v>
       </c>
-      <c r="H8" s="84">
-        <v>0.89381056163060002</v>
-      </c>
+      <c r="H8" s="91">
+        <v>0.88126923778979205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2511,21 +2581,21 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P7"/>
+      <selection activeCell="L2" sqref="L2:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="11" width="9.33203125" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" customWidth="1"/>
-    <col min="13" max="13" width="8.21875" customWidth="1"/>
-    <col min="14" max="15" width="6.6640625" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="11" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" customWidth="1"/>
+    <col min="14" max="15" width="6.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="18" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2575,181 +2645,307 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>4.6105144320507998</v>
-      </c>
-      <c r="I2">
-        <v>2.7561912207943999</v>
-      </c>
-      <c r="J2">
-        <v>-2.20101563962031</v>
-      </c>
-      <c r="K2">
-        <v>-44.512803280320298</v>
+        <v>13.0442120145701</v>
+      </c>
+      <c r="C2">
+        <v>-1.9885787516656299E-3</v>
+      </c>
+      <c r="D2">
+        <v>-1.4627781125844299E-3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" t="s">
+        <v>117</v>
       </c>
       <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>-151.272248797115</v>
+      </c>
+      <c r="N2">
+        <v>328.83021187994501</v>
+      </c>
+      <c r="O2">
+        <v>38.129681986131899</v>
+      </c>
+      <c r="P2" s="5">
+        <v>4.6275739639461998E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>1.5794253412958601</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3">
+        <v>6.0335703268428298E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.62291213544254298</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3.5254068807525501E-4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" t="s">
+        <v>117</v>
+      </c>
+      <c r="L3">
         <v>11</v>
       </c>
-      <c r="M2">
-        <v>-131.15336484128099</v>
-      </c>
-      <c r="N2">
-        <v>292.07143556491599</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0.89381056163060002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="M3">
+        <v>-141.46859863236699</v>
+      </c>
+      <c r="N3">
+        <v>312.70190314708702</v>
+      </c>
+      <c r="O3">
+        <v>22.001373253273201</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1.4708592345899301E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>9.4139942279181597</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3.0132793302731502E-4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>-148.00009420756899</v>
+      </c>
+      <c r="N4">
+        <v>319.00018841513901</v>
+      </c>
+      <c r="O4">
+        <v>28.2996585213251</v>
+      </c>
+      <c r="P4" s="5">
+        <v>6.3083508999369096E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>4.6992998623246702</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5">
+        <v>2.5151715790275802</v>
+      </c>
+      <c r="J5">
+        <v>-2.1203684132865899</v>
+      </c>
+      <c r="K5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>-136.824928111215</v>
+      </c>
+      <c r="N5">
+        <v>299.93557050814502</v>
+      </c>
+      <c r="O5">
+        <v>9.2350406143312895</v>
+      </c>
+      <c r="P5">
+        <v>8.7045238810199797E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B3">
-        <v>11.2140400428314</v>
-      </c>
-      <c r="K3">
-        <v>-34.048718781754403</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>-136.75021217170701</v>
-      </c>
-      <c r="N3">
-        <v>296.50042434341401</v>
-      </c>
-      <c r="O3">
-        <v>4.4289887784978497</v>
-      </c>
-      <c r="P3">
-        <v>9.7611905028228294E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>5.4137794951397797</v>
-      </c>
-      <c r="I4">
-        <v>2.1730992753481599</v>
-      </c>
-      <c r="J4">
-        <v>-1.97841590236683</v>
-      </c>
-      <c r="L4">
-        <v>10</v>
-      </c>
-      <c r="M4">
-        <v>-137.540064945952</v>
-      </c>
-      <c r="N4">
-        <v>301.36584417761799</v>
-      </c>
-      <c r="O4">
-        <v>9.2944086127019396</v>
-      </c>
-      <c r="P4">
-        <v>8.5701869481636505E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5">
-        <v>2.1155833701712301</v>
-      </c>
-      <c r="E5">
-        <v>4.4429019234323998E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.57842083703719105</v>
-      </c>
-      <c r="G5">
-        <v>1.4334550077261499E-3</v>
-      </c>
-      <c r="L5">
-        <v>11</v>
-      </c>
-      <c r="M5">
-        <v>-142.950483405602</v>
-      </c>
-      <c r="N5">
-        <v>315.66567269355698</v>
-      </c>
-      <c r="O5">
-        <v>23.594237128640899</v>
-      </c>
-      <c r="P5" s="5">
-        <v>6.7270086683888803E-6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
       <c r="B6">
-        <v>9.1016618986878104</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2.9330317408218402E-4</v>
+        <v>11.661937946274801</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6">
+        <v>-37.500546379850697</v>
       </c>
       <c r="L6">
         <v>9</v>
       </c>
       <c r="M6">
-        <v>-148.72776548827099</v>
+        <v>-135.93104873116599</v>
       </c>
       <c r="N6">
-        <v>320.45553097654198</v>
+        <v>294.862097462333</v>
       </c>
       <c r="O6">
-        <v>28.384095411625701</v>
-      </c>
-      <c r="P6" s="5">
-        <v>6.1336286186978201E-7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>4.1615675685194402</v>
+      </c>
+      <c r="P6">
+        <v>0.110010894274178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7">
-        <v>12.987461512165501</v>
-      </c>
-      <c r="C7">
-        <v>-2.3879075690771E-3</v>
-      </c>
-      <c r="D7">
-        <v>-1.5680150480654E-3</v>
+        <v>5.5010148464801398</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7">
+        <v>2.5940581839572401</v>
+      </c>
+      <c r="J7">
+        <v>-2.1249511889230601</v>
+      </c>
+      <c r="K7">
+        <v>-47.370542385849902</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M7">
-        <v>-151.70853240110799</v>
+        <v>-130.46791200573</v>
       </c>
       <c r="N7">
-        <v>329.70277908793003</v>
+        <v>290.70052989381401</v>
       </c>
       <c r="O7">
-        <v>37.631343523013904</v>
-      </c>
-      <c r="P7" s="5">
-        <v>6.0214774297527203E-9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.88126923778979205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2763,7 +2959,7 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2777,7 +2973,7 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -2791,7 +2987,7 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -2805,7 +3001,7 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2819,7 +3015,7 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2834,6 +3030,9 @@
       <c r="M15" s="12"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P15">
+    <sortCondition ref="A2:A15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2846,14 +3045,14 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -2921,7 +3120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -2950,7 +3149,7 @@
         <v>0.99769263976677203</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2985,7 +3184,7 @@
         <v>2.2716732939837298E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -3011,7 +3210,7 @@
         <v>2.17878390640038E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -3037,7 +3236,7 @@
         <v>6.30598522307457E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -3063,7 +3262,7 @@
         <v>3.3369070187824399E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -3089,7 +3288,7 @@
         <v>2.317024276153E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -3124,7 +3323,7 @@
         <v>1.5094787228291999E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3150,7 +3349,7 @@
         <v>2.14225351905684E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3179,7 +3378,7 @@
         <v>2.0204544617116499E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -3214,7 +3413,7 @@
         <v>7.9891813358734595E-9</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -3249,7 +3448,7 @@
         <v>5.4443265166021904E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -3284,7 +3483,7 @@
         <v>6.1764646807945397E-13</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -3319,7 +3518,7 @@
         <v>1.2535474717918199E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -3354,7 +3553,7 @@
         <v>3.38407197093381E-15</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -3389,7 +3588,7 @@
         <v>3.4326292623416602E-17</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -3424,7 +3623,7 @@
         <v>7.4690266877603598E-19</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -3459,7 +3658,7 @@
         <v>4.8377189681181195E-19</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -3508,36 +3707,36 @@
       <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="18"/>
+      <c r="C1" s="80"/>
       <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="79" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="79"/>
       <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
@@ -3547,10 +3746,10 @@
       <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -3570,7 +3769,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3590,7 +3789,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3610,7 +3809,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -3630,34 +3829,34 @@
         <v>0.50849999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
     </row>
   </sheetData>
@@ -3675,21 +3874,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E6D5F4EB482D24419CB41C5B690CE070" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5320d157de2435f05a899bbe75a78165">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="366b0458-ae31-47da-8982-d8b2a6a90109" xmlns:ns4="f8af2c6b-cea7-4eb0-bb04-3b9f71b91c5e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af3daeeb9d0b6c06d87a91929cff5b2c" ns3:_="" ns4:_="">
     <xsd:import namespace="366b0458-ae31-47da-8982-d8b2a6a90109"/>
@@ -3918,32 +4102,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40B71FD0-F517-46D7-87C9-5480B6B6258D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f8af2c6b-cea7-4eb0-bb04-3b9f71b91c5e"/>
-    <ds:schemaRef ds:uri="366b0458-ae31-47da-8982-d8b2a6a90109"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2EF4241-1A5C-4B23-B65B-3D86D6FF04E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{531A096D-3424-41C7-8FB8-DE112A077E76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3960,4 +4134,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2EF4241-1A5C-4B23-B65B-3D86D6FF04E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40B71FD0-F517-46D7-87C9-5480B6B6258D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f8af2c6b-cea7-4eb0-bb04-3b9f71b91c5e"/>
+    <ds:schemaRef ds:uri="366b0458-ae31-47da-8982-d8b2a6a90109"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>